--- a/Accumulated Depreciation 5.11.0.xlsx
+++ b/Accumulated Depreciation 5.11.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\YouStank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F96714-854F-4F15-83BC-2899BC2173CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354F4951-E72E-4D9D-AA66-B5ED72FA5C4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{B5D74879-1513-4C67-B069-A14966F39097}"/>
   </bookViews>
@@ -279,7 +279,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -304,6 +304,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -385,21 +386,6 @@
     <tableColumn id="6" xr3:uid="{F85DA65C-B9C9-4167-9582-004E76A89638}" name="YEAR-END ADJUSTMENT" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8D4859D1-8744-4623-AD22-1237E4724ADE}" name="Table145" displayName="Table145" ref="A25:F27" totalsRowShown="0">
-  <autoFilter ref="A25:F27" xr:uid="{29C347FB-34B9-44DD-9F17-51FFA690E7FA}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{32EE9CEF-8BEC-4C7A-88D7-EA0068367CEF}" name="DATE"/>
-    <tableColumn id="2" xr3:uid="{73AA0913-32BD-4609-BA04-20BBE210A4F7}" name="MONTH"/>
-    <tableColumn id="4" xr3:uid="{64900B93-AE01-44AE-926A-29CC894A1EA4}" name="Term"/>
-    <tableColumn id="3" xr3:uid="{5E95899B-1CDB-4A20-B574-DB980F4DE289}" name="PMT"/>
-    <tableColumn id="5" xr3:uid="{55E7FDB5-25E4-454F-9016-CAF24EEB6558}" name="BALANCE"/>
-    <tableColumn id="6" xr3:uid="{DF215960-0364-469D-849B-031472FB13C3}" name="YEAR-END ADJUSTMENT"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1176,7 +1162,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1189,53 +1175,57 @@
     <col min="6" max="6" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1305,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f>E26-Table145[[#This Row],[PMT]]</f>
+        <f>E26-'Accumulated Depreciation'!$D27</f>
         <v>12000</v>
       </c>
       <c r="F27">
-        <f>F26+Table145[[#This Row],[PMT]]</f>
+        <f>F26+'Accumulated Depreciation'!$D27</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Accumulated Depreciation 5.11.0.xlsx
+++ b/Accumulated Depreciation 5.11.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\YouStank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354F4951-E72E-4D9D-AA66-B5ED72FA5C4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2741FB31-9EC6-424B-ACF3-0F6D2D125D02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{B5D74879-1513-4C67-B069-A14966F39097}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Accumulated Depreciation-FINAL" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Accumulated Depreciation" sheetId="5" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="AmntDB" localSheetId="1">#REF!</definedName>
     <definedName name="AmntDB" localSheetId="0">#REF!</definedName>
@@ -279,7 +276,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -289,22 +286,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -312,31 +312,7 @@
     <cellStyle name="Percent 2" xfId="2" xr:uid="{DA6FD434-277B-4808-9EB8-7A143A4C0BDA}"/>
     <cellStyle name="Percent 3" xfId="3" xr:uid="{BB4F302B-0B7B-465B-A656-BE7A407E7F9B}"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
@@ -355,6 +331,18 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -368,22 +356,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9615BDC2-3C12-4E29-8CB7-A488DA35F819}" name="Table14" displayName="Table14" ref="A25:F38" totalsRowShown="0">
   <autoFilter ref="A25:F38" xr:uid="{29C347FB-34B9-44DD-9F17-51FFA690E7FA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{14AC93F3-7AC1-45D0-8993-63760BA75333}" name="DATE" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{25500D07-D2B4-4F55-B76E-A6AD7D294EC0}" name="MONTH" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{92BF9C07-79F7-49C1-8E6E-39A4B7F772CE}" name="Term" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C68D11AE-FD90-4F2B-946B-3A0802A268C8}" name="PMT" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1668DD36-AB1F-4412-BA5C-95CDF05A359E}" name="BALANCE" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{F85DA65C-B9C9-4167-9582-004E76A89638}" name="YEAR-END ADJUSTMENT" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{14AC93F3-7AC1-45D0-8993-63760BA75333}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{25500D07-D2B4-4F55-B76E-A6AD7D294EC0}" name="MONTH" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{92BF9C07-79F7-49C1-8E6E-39A4B7F772CE}" name="Term" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C68D11AE-FD90-4F2B-946B-3A0802A268C8}" name="PMT" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1668DD36-AB1F-4412-BA5C-95CDF05A359E}" name="BALANCE" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F85DA65C-B9C9-4167-9582-004E76A89638}" name="YEAR-END ADJUSTMENT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -703,22 +685,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -726,7 +708,7 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45099</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -753,7 +735,7 @@
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -761,13 +743,13 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -775,7 +757,7 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f>(OblAmnt*IntRate)/IF(SUBSTITUTE(TermLength, " months", "")&gt;1, 12, 1)</f>
         <v>100</v>
       </c>
@@ -803,13 +785,13 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -838,7 +820,7 @@
       <c r="B26" s="6">
         <v>44895</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>0</v>
       </c>
       <c r="D26" s="5">
@@ -858,11 +840,11 @@
       <c r="B27" s="6">
         <v>44925</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>1</v>
       </c>
       <c r="D27" s="4">
-        <f>MonthlyDepreciationPymt</f>
+        <f t="shared" ref="D27:D38" si="0">MonthlyDepreciationPymt</f>
         <v>100</v>
       </c>
       <c r="E27" s="5">
@@ -879,14 +861,14 @@
         <v>44901</v>
       </c>
       <c r="B28" s="6">
-        <f>B27+30</f>
+        <f t="shared" ref="B28:B38" si="1">B27+30</f>
         <v>44955</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>2</v>
       </c>
       <c r="D28" s="4">
-        <f>MonthlyDepreciationPymt</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E28" s="5">
@@ -903,14 +885,14 @@
         <v>44901</v>
       </c>
       <c r="B29" s="6">
-        <f>B28+30</f>
+        <f t="shared" si="1"/>
         <v>44985</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>3</v>
       </c>
       <c r="D29" s="4">
-        <f>MonthlyDepreciationPymt</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E29" s="5">
@@ -927,14 +909,14 @@
         <v>44901</v>
       </c>
       <c r="B30" s="6">
-        <f>B29+30</f>
+        <f t="shared" si="1"/>
         <v>45015</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>4</v>
       </c>
       <c r="D30" s="4">
-        <f>MonthlyDepreciationPymt</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E30" s="5">
@@ -951,14 +933,14 @@
         <v>44901</v>
       </c>
       <c r="B31" s="6">
-        <f>B30+30</f>
+        <f t="shared" si="1"/>
         <v>45045</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>5</v>
       </c>
       <c r="D31" s="4">
-        <f>MonthlyDepreciationPymt</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E31" s="5">
@@ -975,14 +957,14 @@
         <v>44901</v>
       </c>
       <c r="B32" s="6">
-        <f>B31+30</f>
+        <f t="shared" si="1"/>
         <v>45075</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>6</v>
       </c>
       <c r="D32" s="4">
-        <f>MonthlyDepreciationPymt</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E32" s="5">
@@ -999,14 +981,14 @@
         <v>44901</v>
       </c>
       <c r="B33" s="6">
-        <f>B32+30</f>
+        <f t="shared" si="1"/>
         <v>45105</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>7</v>
       </c>
       <c r="D33" s="4">
-        <f>MonthlyDepreciationPymt</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E33" s="5">
@@ -1023,14 +1005,14 @@
         <v>44901</v>
       </c>
       <c r="B34" s="6">
-        <f>B33+30</f>
+        <f t="shared" si="1"/>
         <v>45135</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>8</v>
       </c>
       <c r="D34" s="4">
-        <f>MonthlyDepreciationPymt</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E34" s="5">
@@ -1047,14 +1029,14 @@
         <v>44901</v>
       </c>
       <c r="B35" s="6">
-        <f>B34+30</f>
+        <f t="shared" si="1"/>
         <v>45165</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>9</v>
       </c>
       <c r="D35" s="4">
-        <f>MonthlyDepreciationPymt</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E35" s="5">
@@ -1071,14 +1053,14 @@
         <v>44901</v>
       </c>
       <c r="B36" s="6">
-        <f>B35+30</f>
+        <f t="shared" si="1"/>
         <v>45195</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>10</v>
       </c>
       <c r="D36" s="4">
-        <f>MonthlyDepreciationPymt</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E36" s="5">
@@ -1095,14 +1077,14 @@
         <v>44902</v>
       </c>
       <c r="B37" s="6">
-        <f>B36+30</f>
+        <f t="shared" si="1"/>
         <v>45225</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>11</v>
       </c>
       <c r="D37" s="4">
-        <f>MonthlyDepreciationPymt</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E37" s="5">
@@ -1119,14 +1101,14 @@
         <v>44903</v>
       </c>
       <c r="B38" s="6">
-        <f>B37+30</f>
+        <f t="shared" si="1"/>
         <v>45255</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>12</v>
       </c>
       <c r="D38" s="4">
-        <f>MonthlyDepreciationPymt</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E38" s="5">
@@ -1145,7 +1127,7 @@
     <mergeCell ref="A20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:E2 C4 C6 C8 C10 C12 C16 C18 A20:E20 C14">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1161,9 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED84C52-4030-4CF9-A46C-EB84CA697CB8}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1176,13 +1156,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1231,7 +1211,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1304,9 +1284,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Accumulated Depreciation 5.11.0.xlsx
+++ b/Accumulated Depreciation 5.11.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\YouStank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2741FB31-9EC6-424B-ACF3-0F6D2D125D02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F156B05-6138-4407-BD42-D6E0F335D8E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{B5D74879-1513-4C67-B069-A14966F39097}"/>
   </bookViews>
@@ -17,120 +17,30 @@
     <sheet name="Accumulated Depreciation" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="AmntDB" localSheetId="1">#REF!</definedName>
     <definedName name="AmntDB" localSheetId="0">#REF!</definedName>
-    <definedName name="AmntDB">#REF!</definedName>
-    <definedName name="amount" localSheetId="1">#REF!</definedName>
-    <definedName name="amount">#REF!</definedName>
-    <definedName name="balance" localSheetId="1">#REF!</definedName>
-    <definedName name="balance">#REF!</definedName>
-    <definedName name="BalDB" localSheetId="1">#REF!</definedName>
-    <definedName name="BalDB">#REF!</definedName>
-    <definedName name="beginningBalance" localSheetId="1">#REF!</definedName>
-    <definedName name="beginningBalance">#REF!</definedName>
-    <definedName name="chart" localSheetId="1">#REF!</definedName>
-    <definedName name="chart">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">#REF!</definedName>
-    <definedName name="_xlnm.Criteria">#REF!</definedName>
-    <definedName name="CriteriaValues" localSheetId="1">#REF!</definedName>
-    <definedName name="CriteriaValues">#REF!</definedName>
-    <definedName name="_xlnm.Database" localSheetId="1">#REF!</definedName>
-    <definedName name="_xlnm.Database">#REF!</definedName>
-    <definedName name="date" localSheetId="1">#REF!</definedName>
-    <definedName name="date">#REF!</definedName>
-    <definedName name="DateDB" localSheetId="1">#REF!</definedName>
-    <definedName name="DateDB">#REF!</definedName>
-    <definedName name="description" localSheetId="1">#REF!</definedName>
-    <definedName name="description">#REF!</definedName>
-    <definedName name="DescrptDB" localSheetId="1">#REF!</definedName>
-    <definedName name="DescrptDB">#REF!</definedName>
-    <definedName name="finishDB" localSheetId="1">#REF!</definedName>
-    <definedName name="finishDB">#REF!</definedName>
-    <definedName name="InceptionDate" localSheetId="1">'Accumulated Depreciation'!$C$6</definedName>
     <definedName name="InceptionDate" localSheetId="0">'Accumulated Depreciation-FINAL'!$C$6</definedName>
-    <definedName name="InceptionDate">#REF!</definedName>
-    <definedName name="IncrAmnt" localSheetId="1">'Accumulated Depreciation'!#REF!</definedName>
     <definedName name="IncrAmnt" localSheetId="0">'Accumulated Depreciation-FINAL'!#REF!</definedName>
-    <definedName name="IncrAmnt">#REF!</definedName>
-    <definedName name="indexDB" localSheetId="1">#REF!</definedName>
     <definedName name="indexDB" localSheetId="0">#REF!</definedName>
-    <definedName name="indexDB">#REF!</definedName>
-    <definedName name="IntRate" localSheetId="1">'Accumulated Depreciation'!$C$12</definedName>
     <definedName name="IntRate" localSheetId="0">'Accumulated Depreciation-FINAL'!$C$12</definedName>
-    <definedName name="IntRate">#REF!</definedName>
-    <definedName name="isFilled" localSheetId="1">#REF!</definedName>
     <definedName name="isFilled" localSheetId="0">#REF!</definedName>
-    <definedName name="isFilled">#REF!</definedName>
-    <definedName name="LineNumberDB" localSheetId="1">#REF!</definedName>
     <definedName name="LineNumberDB" localSheetId="0">#REF!</definedName>
-    <definedName name="LineNumberDB">#REF!</definedName>
-    <definedName name="MonthlyDepreciationPymt" localSheetId="1">'Accumulated Depreciation'!$C$14</definedName>
     <definedName name="MonthlyDepreciationPymt">'Accumulated Depreciation-FINAL'!$C$14</definedName>
-    <definedName name="msg" localSheetId="1">#REF!</definedName>
     <definedName name="msg" localSheetId="0">#REF!</definedName>
-    <definedName name="msg">#REF!</definedName>
-    <definedName name="MsgDB" localSheetId="1">#REF!</definedName>
-    <definedName name="MsgDB">#REF!</definedName>
-    <definedName name="OblAmnt" localSheetId="1">'Accumulated Depreciation'!$C$8</definedName>
     <definedName name="OblAmnt" localSheetId="0">'Accumulated Depreciation-FINAL'!$C$8</definedName>
-    <definedName name="OblAmnt">#REF!</definedName>
-    <definedName name="OblDesc" localSheetId="1">'Accumulated Depreciation'!$A$20</definedName>
     <definedName name="OblDesc" localSheetId="0">'Accumulated Depreciation-FINAL'!$A$20</definedName>
-    <definedName name="OblDesc">#REF!</definedName>
-    <definedName name="owner" localSheetId="1">#REF!</definedName>
     <definedName name="owner" localSheetId="0">#REF!</definedName>
-    <definedName name="owner">#REF!</definedName>
-    <definedName name="OwnerDB" localSheetId="1">#REF!</definedName>
     <definedName name="OwnerDB" localSheetId="0">#REF!</definedName>
-    <definedName name="OwnerDB">#REF!</definedName>
-    <definedName name="pmtTbl">#REF!</definedName>
-    <definedName name="pmtTblSize" localSheetId="1">#REF!</definedName>
     <definedName name="pmtTblSize" localSheetId="0">#REF!</definedName>
-    <definedName name="pmtTblSize">#REF!</definedName>
-    <definedName name="ProjDB" localSheetId="1">#REF!</definedName>
-    <definedName name="ProjDB">#REF!</definedName>
-    <definedName name="Project" localSheetId="1">#REF!</definedName>
-    <definedName name="Project">#REF!</definedName>
-    <definedName name="pytTbl" localSheetId="1">#REF!</definedName>
-    <definedName name="pytTbl">#REF!</definedName>
-    <definedName name="RemainOblBal" localSheetId="1">'Accumulated Depreciation'!$C$16</definedName>
     <definedName name="RemainOblBal" localSheetId="0">'Accumulated Depreciation-FINAL'!$C$16</definedName>
-    <definedName name="RemainOblBal">#REF!</definedName>
-    <definedName name="RemainOblTerm" localSheetId="1">'Accumulated Depreciation'!$C$18</definedName>
     <definedName name="RemainOblTerm" localSheetId="0">'Accumulated Depreciation-FINAL'!$C$18</definedName>
-    <definedName name="RemainOblTerm">#REF!</definedName>
-    <definedName name="startDB" localSheetId="1">#REF!</definedName>
     <definedName name="startDB" localSheetId="0">#REF!</definedName>
-    <definedName name="startDB">#REF!</definedName>
-    <definedName name="startofChart" localSheetId="1">#REF!</definedName>
     <definedName name="startofChart" localSheetId="0">#REF!</definedName>
-    <definedName name="startofChart">#REF!</definedName>
-    <definedName name="startofPytTbl" localSheetId="1">#REF!</definedName>
     <definedName name="startofPytTbl" localSheetId="0">#REF!</definedName>
-    <definedName name="startofPytTbl">#REF!</definedName>
-    <definedName name="tblStartOfPyt">#REF!</definedName>
-    <definedName name="term" localSheetId="1">#REF!</definedName>
-    <definedName name="term">#REF!</definedName>
-    <definedName name="TermDB" localSheetId="1">#REF!</definedName>
-    <definedName name="TermDB">#REF!</definedName>
-    <definedName name="TermLength" localSheetId="1">'Accumulated Depreciation'!$C$10</definedName>
     <definedName name="TermLength" localSheetId="0">'Accumulated Depreciation-FINAL'!$C$10</definedName>
-    <definedName name="TermLength">#REF!</definedName>
-    <definedName name="totalDB" localSheetId="1">#REF!</definedName>
     <definedName name="totalDB" localSheetId="0">#REF!</definedName>
-    <definedName name="totalDB">#REF!</definedName>
-    <definedName name="totalDB1">#REF!</definedName>
-    <definedName name="transactionDate" localSheetId="1">'Accumulated Depreciation'!$C$4</definedName>
     <definedName name="transactionDate" localSheetId="0">'Accumulated Depreciation-FINAL'!$C$4</definedName>
-    <definedName name="transactionDate">#REF!</definedName>
-    <definedName name="unit" localSheetId="1">#REF!</definedName>
     <definedName name="unit" localSheetId="0">#REF!</definedName>
-    <definedName name="unit">#REF!</definedName>
-    <definedName name="unit1">#REF!</definedName>
-    <definedName name="UnitDB" localSheetId="1">#REF!</definedName>
     <definedName name="UnitDB" localSheetId="0">#REF!</definedName>
-    <definedName name="UnitDB">#REF!</definedName>
-    <definedName name="unitDB1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -293,6 +203,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,9 +214,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -354,6 +264,188 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC00DA7A-F7B1-4DE8-8CCC-82306232FB6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6908800" y="260350"/>
+          <a:ext cx="3708400" cy="3467100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng">
+              <a:latin typeface="Digital Dare" panose="00000400000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Instructions:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Merge and center cells A1:E1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. Merge and center cells A2:E2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>3. Format cells A1:E1 w/ format font type </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Digital Dare" panose="00000400000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Digital Dare </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>and font size </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>4. Format cell A2:E2 w/ font size </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>5. Format cells B4, B6, B8, B10, B12, B14, B16, B18 as </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>Bold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>6. Merge cells A20:E20. Apply a text wrap.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>7.  Convert range A25:F27 to list object (table)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>8. Apply conditional format to cells C4, C6, C10, C12, C14, C16, C18 where if the cell value is blank then the cell is filled with yellow fill.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>9. Format Date column in the table as date format mm/dd/yyyy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>10. Format Month column in table as custom format mm/yyyy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>11. Fomat PMT, Balance, and Yr-End Adj columns as currency</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,22 +777,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -708,7 +800,7 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -785,13 +877,13 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1211,7 +1303,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1272,19 +1364,20 @@
       </c>
       <c r="D27">
         <f>MonthlyDepreciationPymt</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27">
         <f>E26-'Accumulated Depreciation'!$D27</f>
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="F27">
         <f>F26+'Accumulated Depreciation'!$D27</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>